--- a/mini/python_playwright/output/万科_3.xlsx
+++ b/mini/python_playwright/output/万科_3.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>万科已经回到持续增长轨道</t>
+          <t>万科终止实施2008年度激励计划</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,32 +488,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2010-03-24</t>
+          <t>2009-04-14</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>在3月23日举行的万科股东大会上，董事会主席王石表示，万科已经回到持续增长的轨道，并将依托住宅产业化、绿色建筑等方面的先发优势继续领跑行业。$$王石重申，两到三年的土地资源足以支撑万科的持续发展，万科将继续坚持“不囤地、不捂盘、不当地王”的“三不政</t>
+          <t>万科公告称，由于首期激励计划2008年度计划的业绩考核指标未能达成，公司确认终止实施2008年度限制性股票激励计划，公司没有产生该年度计划相关的管理费用，未来也不会产生有关的管理费用。$$2006年5月30日经公司2005年度股东大会审议通过，万</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltF-gWp0Dp3_x3NwUCqQPZj9e6rNrGVuuRDrqIvXbhgNcKiGtI36JJ_JFUKvquW36yaLvPin-dZsy4L2SNi2xZYTjYtc4g8fZqYw6OKAOZV7A==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24BmxA7o3rz7X7-fpMgxzJqvQ9D8d3HrvOQcEgXbmv3sQQH3KjI0LshlvMkVuKniwWEP6R0V7GSmKs2Y4prqUqJAUzCNX5AYPTZwRbWKDEr_g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>地产年报：想说爱你不容易</t>
+          <t>中国人寿：减股调仓  布局2009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>于萍;王锦</t>
+          <t>谢闻麒;丁冰</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,32 +523,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2010-03-10</t>
+          <t>2009-03-26</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2009年对于开发商来说可谓大丰收之年，这一点从陆陆续续公布的房企年报中就能深刻地感受到。截至3月9日，已公布年报的30家上市房企共实现营业收入1221.33亿元，同比增长21.21%；实现净利润156.75亿元，同比增长40.18%，有6家房企的净利润</t>
+          <t>中国人寿2008年报显示，截至报告期末，公司股权型投资比例已经降至7.98%，降至历史最低水平。其中，股票投资比例由2007年同期的14.74%降至4.36%，基金投资比例由2007年同期的8.21%降至3.62%。与此同时，债权型投资的比例由2007年</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltF-gWp0Dp3_x3NwUCqQPZj9e6rNrGVuuRDrqIvXbhgNcKiGtI36JJ_kxnU6KDvPO_20po2p9wgxWglf6RbnXZyVP3WQS4VSSONjzILNHQG6g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24BmxA7o3rz7X7-fpMgxzJqvQ9D8d3HrvOQcEgXbmv3sXQjc4QOBLJK4q_sWmFfRMfL_8KqUAEJ56SbmN71f1Nw1sQ2aDgyRexe-SvW2Nf81Lxb3Wn-8zWq&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>万科去年销售额突破600亿元</t>
+          <t>万科今年将严控三项费用</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>吴铭;万晶</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,32 +558,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2010-03-02</t>
+          <t>2009-03-12</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>万科今日公布的2009年年报显示，该公司成为国内首家销售金额突破600亿元的房地产公司，业绩重返增长轨道，并再次问鼎全球住宅企业销售冠军，全年实现营业收入488.8亿元，归属上市公司股东的净利润53.3亿元，同比分别增长19.2%、32.1%，各项经营指</t>
+          <t>在11日的业绩说明会上，万科执行副总裁王文金透露，2009年公司将加大费用控制力度，希望将管理费用、销售费用占营业收入的比例较2008年降低20%。$$万科总裁郁亮表示，中国住宅行业目前集中度非常低，排名第一的万科2008年市场占有率也仅有2.3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltF-gWp0Dp3_x3NwUCqQPZj9e6rNrGVuuRDrqIvXbhgNcKiGtI36JJ_vhnEcpaDGCqtBD3OMJQ3DcnDDa5kY84MC3LL2JtqaiosrYBJ7UhkEw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25ASU21fmLgSagyKBaY5SH_FDuKIcSL5IQSVuVK6QoTJpQuT3Q4xHic9MnJPxNaQbvyIA-_7bpLcCGc1hL70_Pk3hM9ej9FQIEEBBWMVT5PXg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>地产业老大的“巅峰对决”</t>
+          <t>行业龙头强者恒强</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>李良;万晶</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,32 +593,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-02-10</t>
+          <t>2009-03-11</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2010年，万科能否稳坐地产商的龙头宝座？这无疑是今年地产业内最乐意于“八卦”的话题。$$这种猜测并非空穴来风。在去年一波销售狂潮后，万科在地产业的霸主地位已然遭遇来自绿城集团的强力挑战，紧随其后的，还有虎视眈眈的保利地产等一众地产大佬。而在今年1</t>
+          <t>在连续10余年保持业绩的高增长后，万科终于走下神坛，2008年净利润同比为负增长，与部分业绩高增长的中小型公司形成鲜明对比。$$但市场研究人士纷纷指出，万通地产等上市公司业绩飙升的主要原因是2007年的巨额销售款转至2008年结算，以及部分高毛利</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltF-gWp0Dp3_x3NwUCqQPZj9e6rNrGVuuRDrqIvXbhgNRvPlmJRDPCc0DCnIjV-yDsoWac-jG_h8bBHsn_zA6xkl-dxvSAtZvEGVpoKOLrIEg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25ASU21fmLgSagyKBaY5SH_FDuKIcSL5IQSVuVK6QoTJpQuT3Q4xHicWCDFavBeUptaCaGxfnnkydvl9gAMlvnPyeTbUOZErKw1gSr68Sa68ageEO7A8082&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>万科2009年全年销售634.2亿元</t>
+          <t>郁亮:房地产市场调整仍未结束</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,32 +628,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-01-07</t>
+          <t>2009-03-11</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>万科A（000002）1月7日公告，2009年1至12月份累计销售面积663.6万平方米，销售金额634.2亿元，分别比2008年同期增长19.1%和32.5%。$$公告还显示，万科12月份实现销售面积40.5万平方米，销售金额55.0亿元，分别比</t>
+          <t>地产龙头万科（000002）3月10日发布的年度业绩受到市场高度关注。作为房地产行业是否有信心的风向标，万科对于地产市场的未来有何看法，其信心何在？万科总裁郁亮在3月9日接受中国证券报记者专访时表示，虽然调整还没结束，但政策的稳定让开发商心里感到踏实，由</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiBEWxxhgSFKtrBss-_Xikl423E25aOVrCmXVjVe3oQqQTRkMKzbWmSI1uQAkZyWO38QNpYfeYH_5&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25ASU21fmLgSagyKBaY5SH_FDuKIcSL5IQSVuVK6QoTJpQuT3Q4xHicNk90XfnM3ZvZ_nVGjIdqYspSNDcvmKyOOMKskVgJgJesIn7nLvGHA87b5fOk6Psn&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>王石：碳减排  中国房企责无旁贷</t>
+          <t>万科  不追求短期内规模增长</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>郇公弟</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2009-12-10</t>
+          <t>2009-03-11</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -671,24 +671,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>“中国作出了碳减排的国际承诺，我们将用企业的行动来支持国家承诺的履行，我们企业家也应当增强环保意识、为环保国际责任意识，做出我们的贡献。”日前，中国万科企业股份有限公司董事会主席王石在哥本哈根接受中国证券报记者采访时表示。$$王石说，“中国政府日</t>
+          <t>经历一年房地产市场纷纷扰扰的洗礼之后，万科的2008年年报终于尘埃落定，2008年实现营业收入409.9亿元，同比上升15.4%，净利润40.3亿元，同比下降16.7%。实现结算面积451.4万平方米，结算收入404.9亿元，同比分别上升14.6%和15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiCwkVL952LQRkRkeNbs0diCXFl30af44KWeivg6uCW8EEct2XRldK_uuE6LcE6DIew-e-V75BSOr&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uCH0BsgsAQzvZCBEcQDEThqEblrRny4OULQRTEOEROiht5h5qbjSr4HOUr-2DIGLqV8qckio-tDz91cPbNbpBvB7llBPm6Qt0tPJvQrczYg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>万科11月份销售额超52亿元</t>
+          <t>万科去年实现净利逾40亿元</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>杜雅文;李阳丹</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2009-12-08</t>
+          <t>2009-03-10</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -706,24 +706,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>万科A（000002）12月8日发布销售简报，11月份公司实现销售面积52.0万平方米，销售金额52.3亿元，分别比2008年同期增长23.6%和46.5%。简报显示，今年前11个月，万科累计销售面积623.1万平方米，销售金额579.2亿元，分别比20</t>
+          <t>万科2008年度报告显示，公司去年实现营业收入409.9亿元，同比上升15.4%，净利润40.3亿元，同比下降16.7%，但如果不考虑存货跌价准备的影响，该指标同比略有增长。公司实现每股收益0.37元，董事会通过的2008年度利润分配方案为每10股派息0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiCwkVL952LQRwK1FPz9IxVhLywGrRLWh0lflYeXYhMhW7XPC6ki0uOc-tLuJLyYBhw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uCH0BsgsAQzvZCBEcQDEThqEblrRny4OULQRTEOEROiht5h5qbjSrwVrFaAVkJ4HuZN2lZS9XP3cleHr6GoO1L0SXwNnjLP2T7xEYGLlzTq_VdfH9hPSX&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>万科蓝山借力CBD迎来销售年</t>
+          <t>万科全国住宅市场份额扩至2.34%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>张楠</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2009-11-25</t>
+          <t>2009-03-10</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -741,24 +741,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>“蓝山1号楼的认筹活动已经结束，一期推出的144套房子都排到九百多号了！”万科蓝山的销售人员如是说。$$11月21日，中国证券报记者走访了位于北京西大望路区域的万科蓝山项目。这个主打“国际化公寓”的楼盘在入市之前就吸引了业界普遍关注。除了CBD概</t>
+          <t>万科、美的电器、西部矿业等公司10日公布2008年年报。万科年报显示，去年实现营业收入409.9亿元，同比上升15.4%；净利润40.3亿元，同比下降16.7%；每股收益0.37元。董事会通过的2008年度利润分配方案为每10股派息0.5元。$$</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiMNiaqJ5ah0cvTXknsM4rsLVLflt9M_vPMmzVlY8Xd2VNvn4TME9pbNSJTCy_tQVHg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27GbSX8J40tuMhXGsWgN-ms5RuqepcaE24zL6zKRivZgRNP5SxN-gFnL0zky2E7VB8LB7NJ3Q33mDxBjvIAeaR1mAvUAq6JAxliFKlNqbLgJ1SBxql1eBkQ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>从万科到“新万科”</t>
+          <t>郁亮：存货结构比较理想</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>钟圳</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2009-09-30</t>
+          <t>2009-03-10</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -776,24 +776,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9月29日，25岁的万科搬至新家。这座位于深圳东海岸的水平向底层建筑，宛如巨鳗盘踞于海滨，其设计出自建筑大师斯蒂芬－霍尔之手，称为“漂浮的地平线，躺着的摩天楼”。$$自2002年起，万科总部一直位于深圳梅林路63号的万科建筑研究中心。在一栋四层</t>
+          <t>万科总裁郁亮3月9日在接受中国证券报记者采访时表示，万科去年“去库存化”表现出色，存货结构比较理想。$$郁亮表示，2009年万科将坚持开发节奏和销售节奏相匹配、产品类型与市场需求相匹配的原则，加强对项目新开工、新开盘的管理，确保产品适销对路。预计</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiAFnogoGTVnf6B5KDBhEY3qZhj9-6v0fD-fmQFJhSCTeN0cyLc48lAuMZhHx7b-4bdFGXcMbhFEm&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27GbSX8J40tuMhXGsWgN-ms5RuqepcaE24zL6zKRivZgRNP5SxN-gFnYS-QYrNBQtPlR0XjfUM8xUlZp6Z0HaC0gorbjbVzSdIuAFqXwZrkrw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>上市公司  中国经济第一方阵</t>
+          <t>珠三角楼市成交反弹延续</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>谢闻麒</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2009-09-18</t>
+          <t>2009-02-28</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -811,24 +811,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1949年以来，武钢、一汽、中国远洋、中国建筑、中国中铁、中国石化、中国人寿、中国银行……一大批国有企业与共和国共同成长，在60年的风风雨雨中不断壮大，步入资本市场；$$1979年以来，万科、苏宁、新希望、雅戈尔、三一重工、海南航空、传化股份……</t>
+          <t>珠三角楼市近四个月的反弹行情，让房地产业看到了些许希望的曙光。然而，曙光仅仅初现，众多开发商的销售策略却开始出现严重分化，有的拟定多销快跑，有的却开始小幅涨价，甚至“捂盘”，珠三角楼市或将迎来持续的多空拉锯战。$$房价初显止跌迹象$$深圳</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu3sFw10iDvG3mxn9YyUQY8CRd7zefvcODhbYK33h3EiAFnogoGTVnfwuthpWvEg42eWnX30NgXvMsW7msWZ2BJwUPJWqhhhMvFP2KSm88BSjorMiAeG5Ah&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27GbSX8J40tuMhXGsWgN-ms5RuqepcaE24zL6zKRivZgRJ85efUrkjIEay5Syap_2p7tpr2SjEe7mX707ijlkl5-h-datb0tbDtrwWpnZO55DULiOSFrE56&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万科  股东大会通过百亿再融资方案</t>
+          <t>万科1月销售均价明显下降</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2009-09-16</t>
+          <t>2009-02-11</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -846,24 +846,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9月15日下午，万科（000002）召开了2009年第一次临时股东大会，审议其以公开增发方式募集不超过112亿元资金的方案。安排了现场投票和网络投票两种方式，根据股东大会现场宣布的数据，全部六项议案的通过率都超过了99.8%。$$根据万科在8月2</t>
+          <t>万科A（000002）1月实现销售面积28.6万平方米，销售金额21.9亿元，分别比2008年同期增长24.2%和18.6%。万科方面表示，1月份销售结果仍然体现出以自住需求为主的特征。$$促销见效$$自2008年5月以来，除11月以外，</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPbiaLPbsyjdDq5QSGTsFhmU5W9tx-jVktLi9bqdjYElfcsWQtrTT556S2GGXWuuaozlag70lkcWoyZJypG-7kH_LcISMOxzXJKAQPITrTPPILbnzfnacs&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261kAOCp3kij9Phq48UYqZwtE1oyD5ESAc35RPQQMPOjzZKOkK09SrOs-VMS-m1ELZJcsVGhEr-DSSWO30qm7vnw1RUCEHcdn5jcJwu1ayt12KrzBqoDOL0&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>四上市公司斥巨资拿地</t>
+          <t>万科1月份销售金额同比增长19%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>林喆;陆洲;牛洪军</t>
+          <t>王维波</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2009-09-08</t>
+          <t>2009-02-09</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -881,24 +881,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7日下午，北京中粮万科假日风景房地产开发有限公司以22亿元的总价，拍得北京房山区长阳镇（长阳镇起步区1号地）居住、文化娱乐项目用地，万科（000002）由此结束了今年以来一直未能通过招拍挂竞得北京土地的局面。$$本次挂牌出让宗地位于房山区长阳镇军</t>
+          <t>万科A（000002、200002）公告，2009年1月份公司实现销售面积28.6万平方米，销售金额21.9亿元，分别比08年同期增长24.2%和18.6%。$$资料显示，公司从2008年8月份至12月份实现的销售面积和金额同比基本呈下降态势，但</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPbiaLPbsyjdDq5QSGTsFhmU5W9tx-jVktLi9bqdjYElfcsWQtrTT5zTxjGmHdiqFBZJjwlA3ah2pDQkQgHx3Q4qzSIcLAkvJPuOa2Y6n3KNMNdFTSYfCM&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261kAOCp3kij9Phq48UYqZwtE1oyD5ESAc35RPQQMPOjzZKOkK09SrOvQ4onAV196tcxOWl5dB453r4pmnca59aJuCzhJ7799dq07SDV1tOf2X4L3wrX4ub&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>上市房企掀起千亿融资潮</t>
+          <t>龙头公司周转压力也很大</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>于萍;林喆</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2009-01-07</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -916,24 +916,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8月底，万科重磅推出的112亿元公开增发计划，将近期上市房企融资热潮推向了高峰。根据中国证券报记者统计，今年以来共有45家A股房企公布融资方案，其中，有12家公司已经完成增发,有32家公司公布了增发预案，融资规模近千亿元。$$业内人士指出，房企融</t>
+          <t>万科刚刚公布的销售数据显示，2008年公司累计销售面积为557.0万平方米，销售金额478.7亿元，同比分别减少9.2%和8.6%；保利地产去年的销售金额也突破200亿元大关。业内人士指出，虽然龙头公司去年的销售业绩较为亮丽，但资金回笼压力仍然较大。</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPbiaLPbsyjdDq5QSGTsFhmU5W9tx-jVktLi9bqdjYElfcsWQtrTT5UpzC69fOcjcVfaR0pp2llBOnAljpHfPZfLnHQjah1HnVjy9Td5eqimrThiGYdqKV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25hdxBoHI3DG9hBLMy40x2VdtrPpJmeZVDZmalx9CTtvymhSeG9cqzWLpdrqDV0v8ESMBCHNuXcPTQHpCnOoPInsCTudxbVw7EmFhlNUs-SNQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>王石：当前的调整是健康及时的</t>
+          <t>两地产龙头2008年底销量翘尾</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>吴铭林喆</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2009-08-28</t>
+          <t>2009-01-06</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -951,24 +951,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>“这次政策微调来得早、来得好。”万科董事长王石8月27日在深圳举行的一场房地产行业专题策略研讨会上表示，2009年市场快速回暖之后进行政策微调非常及时，房地产市场有望趋于稳定，万科将力争抓住新一轮市场机会。$$九、十月成交量$$取决于货币</t>
+          <t>今日，房地产龙头企业万科A（000002）与保利地产（600048）双双公告了全年销售数据。整体而言，两公司2008年实现的销售业绩基本符合市场预期。其中，万科销售面积同比下滑近10%，但12月销售额环比增长50%以上。而保利地产全年销售面积则有同比近三</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPbiaLPbsyjdDq5QSGTsFhmU5W9tx-jVktLi9bqdjYEuw01xy1cy-9DT8ZELE3VkDv2iMSCyIdKAKLy8VzPlkXYSeh2UEaZtElgx1i37oO2w==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25hdxBoHI3DG9hBLMy40x2VdtrPpJmeZVDZmalx9CTtvymhSeG9cqzWlRKleItA8Po6HMW89Y4o4Ha9PPNAXHqqsYJbMYM4R9BC7MzBc8oOxTovX0AqGOvS&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>万科重磅增发拟募资112亿元</t>
+          <t>“限产”难改商品房供求格局</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吴铭;万晶</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -978,32 +978,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2009-08-27</t>
+          <t>2008-11-27</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>万科A（000002）8月27日宣布了再融资计划，拟公开增发A股，发行股票数量不超过招股意向书公告日万科总股本的8%，扣除发行费用后的募集资金净额不超过人民币112亿元。$$在发行方式上，万科此次发行向原A股股东全额优先配售，剩余部分向其他有意向</t>
+          <t>随着万科等房地产企业纷纷对旗下部分项目暂停施工，“限产”继“降价”之后，成了中国楼市又一焦点。而且据称，绝大多数上规模的房地产公司都在考虑对明年开工计划进行“瘦身”。$$业内人士预计，房地产市场销售低迷，地产企业削减项目开工量以降低市场供应将渐渐</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsPbiaLPbsyjdDq5QSGTsFhmU5W9tx-jVktLi9bqdjYEuw01xy1cy-98uQLkr4wuD6jN5INbvjZ1lMgjgLTjD1-5qQm9155X71jt5NIkctUXQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25hdxBoHI3DG9hBLMy40x2VdtrPpJmeZVDZmalx9CTtv33g6OdaK4LOpg_V25vbFGXFVz8SamZ_XlxIwz9lqtAmXR4ti8re_5rxfhSNAfM3qg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>集中采购规模效应开始显现</t>
+          <t>万科挂牌转让南京恒邦股权</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吴铭;万晶</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1013,32 +1013,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2009-08-19</t>
+          <t>2008-11-13</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8月17日，万科在上海举行以“绿色住宅，健康居家”为主题的C级装修房部品集中采购签约仪式，采购总金额逾10亿元。负责集团采购的万科副总裁周卫军8月18日在深圳接受中国证券报记者采访时表示，集中采购的规模效应开始显现，通过此次集中采购可降低采购成本逾1亿元</t>
+          <t>日前，南京恒邦房地产开发有限公司100%股权在南京产权交易中心挂牌转让，挂牌终止日期为2008年12月31日。按照恒邦拥有的南京东方名苑裙楼商业等资产价值，股权转让总价确定为2.268亿元。$$南京恒邦现有注册资本200万美元，其中万科地产（香港</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA62ecyqdjfnzMi6iZN22KIHZcI3sa6Bqt0PEHh7PNfSRTTMlNA-CI6UiVuFwCTVUpg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25n-r2iq4lTvr58kjRJrVEpbuyvioqDBoas3jvU-B0zIXwmY1YlIZIUXVRN17myvQtKNhK9lIGrr1ZkwH0Djl1b3HItymp08Iz9d6xMuZN0g9kofTEG01PD&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>房地产景气度处于恢复阶段</t>
+          <t>中国海外  前10月销售228亿港元</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>于萍;林喆</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1048,32 +1048,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2009-08-12</t>
+          <t>2008-11-12</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7月份，全国房地产开发景气指数环比提升1.46点，这是行业景气度连续第四个月上升。不过，目前房地产业仍处于“非景气”区间，行业投资特别是新开工面积等指标有待进一步恢复。$$1-7月，全国完成房地产开发投资17720亿元，同比增长11.6%，其中，</t>
+          <t>被万科视为强劲对手的中国海外发展（00688.HK）没有因市场低迷而停下追赶的脚步。今年10月，公司房地产销售面积为21.8万平方米，实现销售额20.3亿港元，同比分别增长13.6%和20.1%，环比分别减少1.6%和增长3.5%。$$1—10月</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA62ecyqdjfnzE0A32HGaG8-rmBHKYjxC4LqTb6T0SFX4NUgYCpkCEwPwYhErWwkaqA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25n-r2iq4lTvr58kjRJrVEpbuyvioqDBoas3jvU-B0zIXwmY1YlIZIUkeyIQT8wu7fsh4dRQN6SawK-7RrwUzS8FKePPWS-lT0GER4mHoXYf0WAtej1EcXr&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>全产业链优势凸显</t>
+          <t>房地产销售毛利整体下滑</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1083,32 +1083,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2009-08-05</t>
+          <t>2008-11-07</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>日前，北京建工集团击退保利、首创置地、金泰、方恒等多家知名房地产企业，以20.02亿元拿下今年北京最大的限价房用地——朝阳区王四营乡地块。业内人士分析，北京建工集团的优势在于其主营业务是建筑工程，在保障性住房领域具有明显的成本优势。$$保障性住房</t>
+          <t>一方面是地价上涨、建筑材料和劳动力成本上升，另一方面则是房价下行，受此影响，房地产行业的利润空间正在收缩，销售毛利率呈整体下滑态势。$$据WIND资讯的数据统计，前三季度，86家A股房地产公司平均销售毛利率为33%，比去年同期下降5.6个百分点，</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA62ecyqdjfnzH7d8Zk8U3V1sKDtC6GF28-W3tKJ1LMM8kzfcNiNU6ZMFr67TE1r-Pg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273-NiE03-rDM8ym9AuPaUnmhw7rywV7Dd7rBKG2RRbP5a18U6HNs1IZ480S7WAh3hzfoTF1C3K3JSl8WBUegTiqdbJEeQra79z7BXq_qY4qg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>万科大幅调高全年开工计划</t>
+          <t>QFII重仓哪些股票</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吴铭;万晶</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1118,27 +1118,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2009-08-04</t>
+          <t>2008-10-31</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>万科（000002）4日公布2009年中期报告。上半年，公司实现营业收入218.1亿元，净利润25.2亿元，较上年同期分别增长26.4%和22.5%，上半年每股收益为0.23元。$$报告期内，万科结算面积和结算收入分别为248.5万平方米和215</t>
+          <t>陆续公布的三季报显示，万科、海螺水泥、中国铝业等处于周期性行业的公司受到QFII青睐，被众多QFII重仓持有。在二季度末，万科、海螺水泥就是QFII的十大重仓股之一，三季度，QFII加强了这种偏好。$$万科在三季度被QFII大举增持，瑞士信贷、摩</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA62ecyqdjfnzMOIhsQIEOOLKb4tNLVjSIS2bghyim5l2gSINZ4twGYTqDVZCjVo6ziMvUBguD1X4&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273-NiE03-rDM8ym9AuPaUnmhw7rywV7Dd7rBKG2RRbPxu9F7NtLz99aFJlpfR9YUi_4q79wjSVSUv_cUTDimpCNGYRPCiyKigDbbbCuQmiYB3rXldqovv5&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>上市房企开打土地储备战</t>
+          <t>万科  三季度销售面积同比降三成</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1153,32 +1153,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2009-07-22</t>
+          <t>2008-10-29</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>今年二季度，楼市回暖拉动经济企稳回升，上市房企投资和拿地意愿明显升温，万科、保利、万通等大地产商屡现大手笔运作，纷纷增加土地储备和新开工面积。业内专家指出，具有多元化股权背景的上市房企在今年二季度纷纷介入土地市场，主要是看好中国经济复苏，并认为楼市回暖将</t>
+          <t>万科A(000002)昨日公布的三季报显示，1-9月份，公司共实现营业收入225.4亿元，净利润22.8亿元，分别较去年同期增长59.1%和18.8%。其中，第三季度，实现净利润2.15亿元，同比下降13.42%。万科同时决定，在中期下调开竣工面积的基础</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA1Bo5ZSvmXjMh4J8SqFlzHq4RVHdEn96gHdt-QqphrBNv8zEuWuh7CfyvkWQ7C5Xig==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26UG6oK2tCo_xWfQhCjCu3bS6OkkEinc3MmG7PHSCxycBBQEhEYNq59OWyyjRdsGO7NYYkxPt7NodtALJtlNNk87FuZW-CdYncRiEnB7dJWlQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>拿地决策不应押注房价暴涨预期</t>
+          <t>万科再度调减开发规模</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>林喆吴铭万晶</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2009-07-22</t>
+          <t>2008-10-28</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>值此地产行业快速复苏、土地市场再现火热之时，万科又重新站在了舆论的风口浪尖。5、6月份公司简报显示，万科新增土地14块；7月份再购入4块地。在各地热闹的土地拍卖市场上，同样不乏万科的身影。业内纷纷质疑，万科的土地储备策略是否在5月发生重大改变，当前大举购</t>
+          <t>今日，万科A（000002）、保利地产（600048）、金地集团（600383）、万通地产（600246）、中华企业（600675）等房地产公司公布了三季报，从中看出地产公司业绩分化趋势明显，并且第三季度净利润增速放缓。$$1-9月，保利地产和万</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplt-ASaTJMs4SYkK212E7n-w4hku3zdcRaa2DERrm6JaA1Bo5ZSvmXjMRdgaWdbkGrtVQQjyjXVmS8KZxQKlCMcIayMUeYAsYzGfYTCUTt0-HQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26UG6oK2tCo_xWfQhCjCu3bS6OkkEinc3MmG7PHSCxycBBQEhEYNq592cMs0o269N2mumXjRIuGk1P4ZhjUZRmHnuaTlXv2tQ0aGArfEZwWI4zPbxH5nYEx&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>北京土地战火烧向外围</t>
+          <t>万科财务状况足以应对市场变化</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2009-07-06</t>
+          <t>2008-10-28</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>北京土地市场的战火正在烧向城八区之外。近日，北京五环外靠近轨道交通线的住宅用地遭遇开发商的激烈争夺。3日，金地集团旗下的北京金地兴业房地产开发有限公司以15.62亿元的高价竞得大兴黄村新城北区16号地。$$参与竞价和参观竞价的多家开发商表示，由于</t>
+          <t>万科今日发布三季度业绩报告，其执行副总裁兼新闻发言人肖莉就三季度业绩报告热点话题做出回应。她表示，行业正处于调整期，保有现金用于发展更有利于股东利益。$$顺应时势合理定价$$肖莉表示，10月22日出台房地产业新的宏观调控政策，应该是从整体</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv_qiEi5qQVLhsisx8sWeJT2MxcXeX1LbnTqSprmTrAr-Yx11_v13ud4NYOA1bNreSWD7zTCx6H1qcfwTI75IRuxIq7sOsMM891bLmi8FqjPI9vdAX-YqE2&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26DGl9kmC86ZorQEN9eBaRbo9YeJ81XzRDhEtDH34y3HziJDxlvwAvZwAnKVmaTLpgnjSl4ezza95r9hl885JlYKaPVIsSqe_mj55JlWuHtqBbP13EOP0SE&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>昔日地王命运“冰火两重天”</t>
+          <t>万科  地产龙头与资本市场共舞</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2009-07-02</t>
+          <t>2008-10-21</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>房地产市场从不缺少王者。6月30日，北京市又见证了一位新“地王”的诞生。中化方兴以40.6亿元的天价竞得广渠路15号地，刷新了北京市成交总价和楼面单价的双重纪录。所谓“时势造英雄”，昔日的地王也曾经历过辉煌，然而不断推高的地价却同时给开发商带来了巨大的成</t>
+          <t>1984年是一个特殊年份，如今则被称为“公司元年”，随着中国企业的第一次改制潮，联想、海尔、上海锦江等一大批知名企业，都是在这一年相继诞生。这一年在深圳，一家名为深圳现代科教仪器展销中心的企业悄然问世，这家企业就是万科的前身。当年谁也没有想到，在完成股份</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv_qiEi5qQVLhsisx8sWeJT2MxcXeX1LbnTqSprmTrAr-Yx11_v13ud0S72IwR_lBfB3uIR2c-eKYoEPUOncwKFZeKfE0Ea5CUBFftHskcsJQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26DGl9kmC86ZorQEN9eBaRbo9YeJ81XzRDhEtDH34y3HziJDxlvwAvZ82VXCd8E2WQ4kPULSNBHUluqREFlo0RiETexiIB85V6iKRMFIPkczA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>“金牛”领袖指点产业布局</t>
+          <t>房地产开发模式酝酿剧变</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>陆洲</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1293,32 +1293,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2009-06-29</t>
+          <t>2008-10-13</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>在“2008年度金牛百强上市公司高峰论坛”上，针对金融危机背景下的产业投资选择，来自万科、山东黄金、烟台万华等上市公司高管以其生动实践，与参加论坛的嘉宾们分享了“保增长、渡难关、上水平”的心得体会。$$他们普遍认为，面对金融危机，上市公司应该在保</t>
+          <t>从一线城市逐渐向二线城市蔓延的地产降价潮，不仅仅是地产商回笼现金的“过冬”之举，更预示着行业的未来发展方向：房地产开发将进一步告别“画地为牢、囤地卖楼”的模式，向“不囤地、不捂盘”的快速开发模式转变，其结果是行业集中度的提高。$$多年来，相当多的</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv_qiEi5qQVLhsisx8sWeJT2MxcXeX1LbnTqSprmTrAr_O2tP8TTALjJSm8Qeoz03Q2G_HKot0jmMXxM30xiSWashrXp2SPT7cJCJ6-Y9C3nvRqMJncIMqu&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26DGl9kmC86ZorQEN9eBaRbo9YeJ81XzRDhEtDH34y3HziJDxlvwAvZkxorfbCVHTHNUAxWKI1gELCJf_6ve3XoLkoLPyWQ8Iyms2waRWFB_eTKNzOhMN2x&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>万科：房价上涨过快不利市场稳定</t>
+          <t>地产机械行业成焦点</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>李波</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1328,32 +1328,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2009-06-17</t>
+          <t>2008-10-11</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>万科A（000002）董秘谭华杰16日在接受中国证券报记者采访时表示，目前万科的销售中自住需求仍是购房的主体，但投资购房比例确实呈现出上升的迹象。从企业角度来看，平稳和理性的房价更有利于行业的发展，而在当前的形势下，也更有利于市场成交量的巩固。$$</t>
+          <t>在本周申银万国、长江证券等42家券商研究机构给出投资评级的个股中，有56只个股被给予了最高的“买入”评级，有30只个股被分析师首次关注，有15只个股的评级被调高，有18只个股的评级被调低。本周地产行业和机械行业的个股受到不少分析师的关注。$$万科</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv_qiEi5qQVLhsisx8sWeJT2MxcXeX1LbnTqSprmTrAr_O2tP8TTALjVn8EhJFc9Z5n16AwMcaL3ZMGbI43LRwkmbfuGOPOOod3ypQNr3iezQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25tCqgvEphSXblPqUWhotUpNT_4zymDonbqvRunRmiDcVvUMXWgKyH8ILkGCZW6989qBfPrjsQ9uZkerUhhtMYWfQqg7t0ywwnGSVbqF1ifRbdJsYKEhNWY&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>世茂房地产拿下厦门地王</t>
+          <t>旺季不再  销售不容乐观</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>林喆孙晶晶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1363,27 +1363,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2009-06-12</t>
+          <t>2008-06-23</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8日举行的厦门土地拍卖会上，万科和世茂房地产双双竞得地块，后者创造了厦门的“总价地王”。这场土地拍卖会气氛异常火暴，共成交8幅地块，成交总价97.15亿元。$$知情人士向记者透露，底价4.89亿元的福州台江区江滨大道北侧的商业地块将于6月26日挂</t>
+          <t>随着龙头企业1至5月销售数据的相继公布，房地产业今年以来的整体销售状况也渐渐浮出水面。虽然，万科（000002）、保利地产（600048）等企业在今年前5个月的销售金额同比实现增长，但环比增幅趋缓、销售面积下滑却印证了房地产销售整体持续低迷的现实。$$</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv_qiEi5qQVLhsisx8sWeJT2MxcXeX1LbnTqSprmTrAr_O2tP8TTALjjB6NaN11596I-JY_jmCItdkc1AyOx1_PVyhAqdEm6chKLsNNPX9y7w==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25tCqgvEphSXblPqUWhotUpNT_4zymDonbqvRunRmiDcQxjZ4aYoCXB9YoQavcVJPCcjGrlNao3YIfzbUYibJCo2N1oVAoxvEB5I-MnquLuDEru1jxv5jLh&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>华南地产商“储地战”升级</t>
+          <t>中粮地产拟增发收购大股东资产</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1398,30 +1398,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2009-06-10</t>
+          <t>2008-03-22</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>万科5月份砸下23亿元在二、三线城市一举拿下6幅地块，保利地产3.85亿元获得北京密云云水名苑项目用地，富力地产高价拍下备受关注的北京广渠门外10号地，金地集团近期通过挂牌方式以3.068亿元获得武汉市洪山区某居住用地，招商地产项目布局12个城市的项目进</t>
+          <t>中粮地产（000031）今日公告，公司与控股股东中粮集团正在积极研究通过定向增发或其他方式，收购中粮集团及其子公司所持万科中粮（苏州）置业有限公司49%的股权等9笔股权的具体操作方案，并开展有关审计评估工作。$$中粮集团拟向公司转让其直接或间接持</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHcR-B6MHF3I8AUMcK7NjbcpHjMbvkXpD4E5XKAqozVnp7MU-mvR3NRCk9gDOOUb71Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24IrwVoGK8Hr1aSfcI93SoCbRjookvLhM3ljl7lAtVENoTEQeQ3BXcU4QCiRscPXWdu8l-JhH9WjYzYTTOjvGxzIgxl9Lx5DVjNStDGaeXUJQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>万科A(000002)定价精准优势将逐步体现</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>万科半年销售额逼近去年全年水平</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>陈雪;吴铭</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1429,34 +1433,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2009-06-09</t>
+          <t>2007-08-28</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2009年5月份公司实现销售面积69.7万平方米，同比增长19.3%，环比增长17.14%；销售金额64亿元，同比增长19.7%，环比增加21.6%；销售均价为9197元，较08年整体销售均价8596元上升7%。申银万国发布报告给予“增持”评级。$$</t>
+          <t>今日公告的万科中报显示，继2006年成为国内首家销售额突破200亿的房地产企业之后，今年上半年万科的销售业绩再次实现了强劲增长，实现销售面积231.2万平方米，同比增长幅度高达89.0%，销售金额174.7亿元，同比增幅高达136.4%，基本每股收益0.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHcR-B6MHF3I8j5IbgWZglVEeIydKxRtlyPxsjzT-Kg3nTp52efvOrEzzVhlfc5e-rg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24IrwVoGK8Hr1aSfcI93SoCbRjookvLhM3ljl7lAtVENv8G7LnFneYTMrA3O2LQVDODj-M2Cc0gs0ig2fch62LyZhtwe-eNZIgtNYNuA2rRZw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>万科五月新增六项目</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>于萍;周婷</t>
-        </is>
-      </c>
+          <t>万科A(000002)  受益于规模优势和房价上涨</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1464,30 +1464,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2009-06-08</t>
+          <t>2007-07-18</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>房地产市场的迅速回暖，使开发商们的拿地意愿显著上升。业内人士指出，基于通胀预期，未来将迎来“资产为王”的时代，这也促使房地产企业加大拿地力度，储备土地资源。$$万科A（000002）8日公布的销售数据显示，公司五月份实现销售面积69.7万平方米，</t>
+          <t>万科既是房地产行业的领跑者，也是资本市场的投资标杆，将成为国内房产行业集中度提高的历史创造者和最大受益者之一。国泰君安张宇、孙建平将公司2007年主营收入和净利润从原预测的280.2亿元和32.8亿元调高到377亿元和50.9亿元。以现有65.5亿股股本</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHcR-B6MHF3I8D5fcz8YRoguZcqcOehStyCqshFbfKQUejJ1NqXp80N_iBZWGSRIGig==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24IrwVoGK8Hr1aSfcI93SoCbRjookvLhM3ljl7lAtVENi7C0X-wyL986EWIwobf2vJnAlQ4E_PYTbnZJB-IjmPp6bboK3UlSATxwl3FAZiSig==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>广州证券通胀预期提升地产股投资价值</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>万科  地产行业领跑者</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>陈雪</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1495,34 +1499,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2009-06-06</t>
+          <t>2007-07-07</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>近期全球流动性泛滥，市场资金充裕，资源类产品价格有大幅上涨趋势。预计下半年国内输入性通胀将重现，楼市价格将会推高，因此，房地产股值得持续关注。$$从国内各大城市上半年楼市的表现来看，楼市的成交量和成交金额出现明显回升，有些城市成交价格和成交量已经</t>
+          <t>$T‘2006年，被万科(000002)视为标杆的企业，美国最大的房地产商帕尔迪在年报中写道：“漫长的旅程中，我们可能不得不经常调整航行的路线，但我们罗盘所指的方向永不改变。”这句话理应适用于所有的企业。战略会</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHcR-B6MHF3I8dXj-i45HFM0HTjPBGeaSxY9MysBmKqgTGPvuLD5rsz9NoY_226VajQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24IrwVoGK8Hr1aSfcI93SoCbRjookvLhM3ljl7lAtVENi7C0X-wyL98L6ZvzhOFkthttc7jNRKeZ8SbJjDnvunYBqmG2BoPZJGH2B7yNJhVHA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>土地市场交易渐趋升温</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>林喆</t>
-        </is>
-      </c>
+          <t>万科A(000002)  不断超越发展预期</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1530,32 +1530,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2009-05-27</t>
+          <t>2007-04-09</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5月以来，主流地产商开始积极介入土地市场的“招拍挂”，一线城市的成交地价开始升温。日前，参加“2009中国（宁海）房地产高峰论坛”的专家认为，房地产市场新房开工、土地购置等指标整体而言依然不太乐观，但部分区域已出现回暖的信号；开发商对于优质地块的角逐将日</t>
+          <t>专注于住宅开发的万科，通过外延增长巩固和扩大开发规模和优势，市场份额持续增长，不断超越预期。按照2006年底股本计算，海通证券张峦预计公司2006－2008年的每股收益分别为0.74元、1.13元和1.56元。综合PE、RNAV和PEG估值法，张峦认为万</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHXcPnB4DIEVwRN7glJGwcXAF3dO-RTQGYSa6Sgq7m7PoZu3_h9_8K0xExKIts0XMLQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FL3WSnx89Cdi2HUhLu4FMuGhITxjt_ns7e7bblmTidrc9RWftVWOmkzEDAKQaWddPa96yZ0EfQIOnS1TYVzn6IhcmPPJvE7fjoliXMvtZaw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>优势日益向龙头公司集中</t>
+          <t>食品饮料成保险机构新宠</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>陈健健</t>
+          <t>尚晓阳;赵彤刚</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1565,32 +1565,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2009-05-20</t>
+          <t>2006-11-02</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>“2008年度中证上市公司金牛百强”中，以万科为首的六家地产公司光荣上榜，其中万科荣膺百强第三名。房地产行业在百强评选中可圈可点，显示出地产龙头公司的不俗实力。而在经济危机背景下，房地产大腕们能否继续高速成长更加值得关注。$$2008年度“金牛百</t>
+          <t>三季报中，跻身上市公司前十大流通股股东的保险公司对食品饮料类公司的持仓市值为25亿元，而半年报中的持仓市值仅6600万元。贵州茅台、五粮液、伊利股份市值大幅增长，令保险机构获益匪浅。$$经过了今年二季度的大幅增仓后，A股市场的重要投资机构保险公司</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltcZ5Nrs2HToW-w49LszOWj3vamzsL4SH64MZkKVRruHXcPnB4DIEVw5_oQJRupOe6u2zUkURDPNzOjnXeE1NYcFZE-uVZ77LIKP03KklgcVg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FL3WSnx89Cdi2HUhLu4FMuGhITxjt_ns7e7bblmTidoBzMIku_GBq_0FD4lMcKslXN13wmPARvC785b8uYmulF1LxtqeQ5q8lC1chB69bYA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>金牛地产十强光荣绽放</t>
+          <t>金融地产股遭遇“空翻多”</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>林喆;于萍</t>
+          <t>易非</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1600,32 +1600,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2009-05-20</t>
+          <t>2006-10-25</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>春秋交替、潮落潮起。十余年来，国内房地产市场经历过“炽夏”，也体味过“严冬”；行业景气攀登过“巅峰”，也步入过“低谷”；但是，在房地产领域，总有一批房地产企业，始终沿着“成长”的轨迹发展壮大。$$大浪淘沙、业绩沉浮。这些地产企业或许踏错过开发的时</t>
+          <t>易方达、银华等22家基金公司的92只基金今日首批公布三季报。天相投资统计数据显示，金融、地产股最受基金青睐。与二季度相比，基金对这两个行业采取了“空翻多”策略，增持相当明显，这种策略最终导致了三季度金融、地产股的大涨。$$从三季度基金的仓位数据来</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShshRv3nMLxZ1AsWK8VNZJoovFQnaANpy-avD4D_uR62giVCNWgFwaVbj9SVS7hTvP0Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FL3WSnx89Cdi2HUhLu4FMuGhITxjt_ns7e7bblmTido_tBoWHiWE_HqTPuz4Q-02OHp91-9I0OYkZkRRXwtdzkEUkAUpvrPuc7OXk8GPu-A==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>市场向好  香港中资地产股狂飙</t>
+          <t>地产板块  价值基础开始动摇？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>龙跃</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1635,32 +1635,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2009-05-20</t>
+          <t>2006-09-27</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>在地产上市公司中，在香港上市的中资地产股是投资者不可忽视的一个板块，中国海外发展、华润置地等优质公司是这个板块的代表。截至昨日收盘，中国海外发展的市值为1203.5亿港元，与龙头老大万科的市值不相上下。$$绿城上涨160%！上海复地上涨110%！</t>
+          <t>9、10月份一般是地产行业一年中销售情况最好的时候。然而，就在“金九银十”这样的日子里，本周地产股却开始了调整。周一，G中企、G张江、G实发展等上海本地地产股放量下跌，昨日G万科Ａ、保利地产的跌幅均超过4%。地产股新一轮调整是否开始了？一些分析人士认为，</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShshRv3nMLxZ1AsEnYX_ZncAHuM7MF3A-stYHFSUTeqHn9zhbriIGvLK0CYpSR0qOgvA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FL3WSnx89Cdi2HUhLu4FMuGhITxjt_ns7e7bblmTidvJCBs-Y-FxNiB1EGtdRsKlYk-ePYz9_746UQMOKTYGTnSAtO5xV1k-dwzfF0K6ZtA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>中信证券苏宁电器万科居前三</t>
+          <t>房地产整体纳税差强人意</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>陆洲</t>
+          <t>曹腾</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2009-05-15</t>
+          <t>2006-09-15</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>由中国证券报主办、ValueTool财务估值模型提供技术支持的“2008年度上市公司金牛奖”评选结果15日揭晓，中信证券、苏宁电器和万科荣登百强榜前三名。前十名的其他公司是:招商银行、中国船舶、海螺水泥、保利地产、浦发银行、格力电器和特变电工。$$</t>
+          <t>刚刚出炉的“2005年中国纳税500强”让地产大鳄们稍微舒了一口气。经过合并计算，G万科以13.24亿元的纳税额进入纳税百强，广东碧桂园和SOHO中国北京代表处则分别以2.85亿元和2.84亿元的纳税额，位列490位和494位。而地产行业也以1798亿元</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShshRv3nMLxZ1AOXxtnFqueDPCUsnLYckac3wZH6J7cVlhHJB5w1ur06bAcJQNZEj7XkuTwUlUzRxz&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24gNl7-I-SPg5ZH9ENCLmHBCpw0yobDCLlLxyKt3DIMv3L4byD3IFhHkPqZolx3i8g88SWrvBYOWeAqYfgjXDPZulcaZXWa7D-RlBgN6HMoDA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>深圳楼市走出价格战险境</t>
+          <t>8%销售净利率下的生存法则</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>曹腾</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1705,32 +1705,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2009-05-06</t>
+          <t>2006-09-13</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>众多大牌开发商集体亮相，竞相促销，买房送宝马等故事，在今年深圳春季房交会上已经如同天方夜谭。“五一”期间的2009中国（深圳）春季房地产交易会暨城市土地展，和以往春交会大不相同，品牌开发商近乎集体缺席，深圳参展房企仅25家，参展楼盘41个，且优惠促销活动</t>
+          <t>旨在紧缩地根和银根的调控政策密集出台，将对房地产公司的盈利能力产生深刻影响。依靠高财务杠杆和低成本土地的盈利模式将难以为继，房地产企业的核心竞争力将向营运能力倾斜。$$通过对32家样本公司（全年房地产收入占主营收入90%以上的公司）的分析可以看出</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShshRv3nMLxZ1Ab_QPFKHKmsnjkq7ZaVeAE2rn2NZSuYoN6k4XzyxoyskATe3jDBa5okk7i5pKU93v&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24gNl7-I-SPg5ZH9ENCLmHBCpw0yobDCLlLxyKt3DIMv3L4byD3IFhHqWzt9kQ2bjRpq1du2K4Efng7YNXYjd0ttUvVLj8D2QD8ycgog_c72w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>万科的“零”和“壹”</t>
+          <t>房地产企业现身纳税500强</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>陈亮</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1740,32 +1740,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2009-04-27</t>
+          <t>2006-09-04</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2009年万科的主题词只有两个字：“零”和“壹”。公司的解释是：“零”，既是原点，也是起点。万科将放下往日的成功，修正过去的不足，将每一天视为新的起跑点。“壹”，象征着希望，也代表行动。万科将一步一步，脚踏实地，与股东共同迎接美好的未来。$$作为</t>
+          <t>“根据中国税务年鉴的数据，2005年全国房地产行业税收是1798亿元，占到全国总税收的5.8%，这能说明房地产行业是纳税侏儒吗？”在约见《中国证券报》记者时，SOHO中国董事长潘石屹有些不平。$$作为连续三年蝉联“中国十大暴利行业”之首的房地产业</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShsjYmaYSt85OY7c8LpBEaQrjF0-ERqH0wsnHe_CIdeVP7JHADXF11d-ERhuYhHxJFbADgFMxx3WIy&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24gNl7-I-SPg5ZH9ENCLmHBCpw0yobDCLlLxyKt3DIMv3L4byD3IFhHG27Q_XgcVwUHH1JquDQOOZwQ4pvchz9mGMgcu47oOOO8Lr2V3s9w6Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>一季报显示四大龙头地产公司资金压力缓解</t>
+          <t>万科权证迎来最后交易日</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1775,32 +1775,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2009-04-27</t>
+          <t>2006-08-28</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>27日，万科（000002）公布一季报显示，公司一季度实现结算面积106.1万平方米、结算收入80.3亿元，同比分别增长32.1%和27.7%；营业收入81.6亿元，净利润7.7亿元，同比分别增长27.6%和7.1%。$$至此，万科、保利、金地、</t>
+          <t>万科（000002、200002）今日发布提示性公告，提醒投资者该公司大股东华润股份有限公司发行的存续期9个月的认沽权证“万科HRP1”将于最后交易日8月28日后停止交易，并进入行权期。$$万科HRP1行权将有损失$$公告提示称，该权证具</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltjNY3KHiC_eV_lD4wBCh-XGNRAkxv24HS0G2J90PShsjYmaYSt85OYOkBLidPi3K4dh-qZJuWR_M7TpBUg1Pg9YcaaAwOZjUZBAyZNHuP2mw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24gNl7-I-SPg5ZH9ENCLmHBCpw0yobDCLlLxyKt3DIMv5-ljYf7i_n0BmnJNd4NySesL_zYgPBUM1m2unuECh5W3ES_iWbsFzoMfCsVX1yjxw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>金融地产重受宠  “铁公基”遭冷落</t>
+          <t>二季度QFII减仓近四成</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>易非</t>
+          <t>牛洪军</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1810,32 +1810,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2009-04-22</t>
+          <t>2006-08-14</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>天相投顾对积极投资偏股型基金重仓股数据的统计显示，浦发银行、中国平安、中信证券等金融股，保利地产、华侨城等地产股成为基金增仓的重点。中国铁建、中国南车、中国铁建等前期受益政策的基建类股，以及医药类、消费品等弱周期的防御性品种则成为基金减持的“重灾区”。$</t>
+          <t>尽管100亿美元的QFII额度即将用完，但数据显示，今年二季度QFII并没有因额度增加而相应增仓，反而在上市公司前十大股东中的持股数量环比整体下降了36.01%。$$整体仓位下降明显$$据本报信息数据中心统计，截至8月11日披露半年报的4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9ToOoP8BVNOoGcIv5_Naafzzso5cBbKqFCcPse3uj2gnzMyDKFx6U_4K8MzFOwZ0Tg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24gNl7-I-SPg5ZH9ENCLmHBCpw0yobDCLlLxyKt3DIMv5-ljYf7i_n0DjN6UjpcVsZHZbBlKeRtdxPTQPVyvoA9b5W1NCn_owMVaLFSOOtfsA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>万科终止实施2008年度激励计划</t>
+          <t>地产调控下的新商业模式</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>陈雪</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1845,32 +1845,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2009-04-14</t>
+          <t>2006-08-07</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>万科公告称，由于首期激励计划2008年度计划的业绩考核指标未能达成，公司确认终止实施2008年度限制性股票激励计划，公司没有产生该年度计划相关的管理费用，未来也不会产生有关的管理费用。$$2006年5月30日经公司2005年度股东大会审议通过，万</t>
+          <t>万科全面收购浙江南都是预料之中的事，不同寻常的是，总经理郁亮在新闻发布会上反复强调了这样一个词：资源整合。$$记者注意到，尽管万科早在2004年就作出判断，行业资源整合将是中国地产未来10年最显著的趋势之一，并依此制定了新10年发展策略，然而资源</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9ToOoP8BVNOoJZVKdBpx00raZU5sLm-iLW4rd-hUGukL8XnTOVa9KVlY1SNsRKFyuA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MGZ64WHiS94W8BXRQzjO_0Att75eNDJntIzA1t831yaxcPsNsr-T17CEfpqu4TTosA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>中国人寿：减股调仓  布局2009</t>
+          <t>万科全面控股南都</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>谢闻麒;丁冰</t>
+          <t>陈雪</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1880,32 +1880,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2009-03-26</t>
+          <t>2006-08-07</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>中国人寿2008年报显示，截至报告期末，公司股权型投资比例已经降至7.98%，降至历史最低水平。其中，股票投资比例由2007年同期的14.74%降至4.36%，基金投资比例由2007年同期的8.21%降至3.62%。与此同时，债权型投资的比例由2007年</t>
+          <t>G万科（000002）的扩张步伐正在加快，继上半年成功整合北京朝开中心后，万科再下一城。昨天，该公司总经理郁亮在杭州正式对外宣布，将全面控股浙江南都房产集团公司，并由此开启万科以资源整合的新商业模式实现快速发展的新纪元。$$据悉，万科及附属上海万</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9XKz0saNtmQRg4LW_PPMa2dMWuvOG3N3OTg9AzxyZLDQUy5MN3t4koX_RcPHzXZXyOHlwBrCV_qo&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MGZ64WHiS94WXVv4KChgNxfmkWIESwXUQya6MQDSCox5NeueKE9Y0ixIWSN78fqpog==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>万科今年将严控三项费用</t>
+          <t>万科 以规范赢得15年持续增长</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>陈雪;田世欣;丁文长江证券研究所;银河证券研究中心</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1915,32 +1915,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2009-03-12</t>
+          <t>2006-07-10</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>在11日的业绩说明会上，万科执行副总裁王文金透露，2009年公司将加大费用控制力度，希望将管理费用、销售费用占营业收入的比例较2008年降低20%。$$万科总裁郁亮表示，中国住宅行业目前集中度非常低，排名第一的万科2008年市场占有率也仅有2.3</t>
+          <t>规范与发展，在很多企业家看来，有时是一对矛盾，常常非此即彼，不能兼顾，但万科的实践却颠覆了这一惯性思维。$$数据显示，1988年到2005年18年间，万科股价增值115倍；1991年到2005年，万科主营业务复合增长率28%，净利润复合增长率31</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9XKz0saNtmQRMB0Uyuz2S96T5QP_cEczFaAYurVQHbGHRfuMcjCjhbmgR8-1KaYGKw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MBxONfcVfmHHG9qamt0jqArBok6bF3SPT5-irGI-CULX4NT4H48_-_ZrOPRfqAcRHg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>行业龙头强者恒强</t>
+          <t>投资评级简报</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>龙跃</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1950,32 +1950,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2006-07-06</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>在连续10余年保持业绩的高增长后，万科终于走下神坛，2008年净利润同比为负增长，与部分业绩高增长的中小型公司形成鲜明对比。$$但市场研究人士纷纷指出，万通地产等上市公司业绩飙升的主要原因是2007年的巨额销售款转至2008年结算，以及部分高毛利</t>
+          <t>巨轮股份低估的专用装备龙头$$国泰君安证券研究所张锦灿表示，预计未来5年轮胎模具行业将保持10%以上的高速增长，而G巨轮收入也将保持15-20%的增速。预计公司2006-2008年每股收益分别为0.43元、0.67元、0.82元。根据上下游行</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9XKz0saNtmQREkxnbmEglJCiSrgdZFZmtd4tCQF7EMxuDtrkACVmudRtNa4kmYx3t1_XTfieoRHY&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MBxONfcVfmHHL19f9HcdAIFcOZENhm0QlAoMyouZqWYron-HvzXEmqlZ0KGgqpZJzA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>郁亮:房地产市场调整仍未结束</t>
+          <t>部分权证投机大限已到</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>高改芳</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2006-06-20</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>地产龙头万科（000002）3月10日发布的年度业绩受到市场高度关注。作为房地产行业是否有信心的风向标，万科对于地产市场的未来有何看法，其信心何在？万科总裁郁亮在3月9日接受中国证券报记者专访时表示，虽然调整还没结束，但政策的稳定让开发商心里感到踏实，由</t>
+          <t>“038002，6月13日还有4毛钱，两天之后就已经是0.295了。”中国建银投资证券福州营业部王岩提醒记者。今年8、9月，像宝钢、万科这些权证，有可能一分钱都不值。“最好等到8月以后，权证市场上的泡沫挤掉、权证价格回归理性之后再投资权证。”王岩说。$$</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvqihdkN3jN35L71WC6hFJOaCrfAN5Z7D7GMrBdiaBQ9XKz0saNtmQRoMUqWD2eIMYKuVxDLtg9UeMKV7-lg17irNPNJRzHerjLTMWIH6hKeAWHeMpQNJ5w&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MCZqXrJ60BUDWql0Gz6sCEbhLIeFQUkvfq9bvnFhZG2_BHqxkiSY3B74fJreRQvdKQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>万科  不追求短期内规模增长</t>
+          <t>房地产上市公司10强出炉</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>曹腾</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2006-06-02</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>经历一年房地产市场纷纷扰扰的洗礼之后，万科的2008年年报终于尘埃落定，2008年实现营业收入409.9亿元，同比上升15.4%，净利润40.3亿元，同比下降16.7%。实现结算面积451.4万平方米，结算收入404.9亿元，同比分别上升14.6%和15</t>
+          <t>“2006中国房地产上市公司10强”评选近日揭晓，G万科A、G招商局和G陆家嘴荣膺综合实力前三名。$$此次评选由国务院发展研究中心企业所、清华大学房地产研究所和中国指数研究院三家研究机构共同组建的“中国房地产TOP10研究组”组织策划。产生出“综</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCS0q0J3bKM-krXwbI0yHxIQ3tFpmXihZdOLRVbp5th5S5NSVUT0wMRhB5k_DFqnMnQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Ms7LVrcfhnGwl8k0BHjEZEx8y8nNgNd_pauAJng75MCZqXrJ60BUDLJeWyRnRRS7RiCjXObKQg0DyIdF4-ADCwzU9fs1Lzc8uY21VwzsppA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>万科去年实现净利逾40亿元</t>
+          <t>G万科股权激励获股东大会批准</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>吴铭;陈雪</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2055,34 +2055,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2009-03-10</t>
+          <t>2006-05-31</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>万科2008年度报告显示，公司去年实现营业收入409.9亿元，同比上升15.4%，净利润40.3亿元，同比下降16.7%，但如果不考虑存货跌价准备的影响，该指标同比略有增长。公司实现每股收益0.37元，董事会通过的2008年度利润分配方案为每10股派息0</t>
+          <t>G万科（000002、200002）修订后的首期（2006－2008年）限制性股票激励计划昨日获得了股东大会的批准。$$昨日到会的G万科股东共持股13.28亿股，包括近1.2亿B股。统计结果显示，99.61%的股份投了赞成票，无反对票，仅0.39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCS0q0J3bKM-kI1LOxKWHXp_meoGg9jazyVE6OCJYGjUkLJjiT-wDa1osRzSelmmT6mXLmn1LPMqq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273Q8FdLSAjN8-pk3Lj1x_sH7M7xrFZcHVf4HqmmBLofYnIYgvB9WDBrl27_fqbcCYfQTI3toTpAJMGqhP8zEv9SOVxqJQkXxgHIwdCSDwA_g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>万科全国住宅市场份额扩至2.34%</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>张楠</t>
-        </is>
-      </c>
+          <t>提供市价申报 丰富交易手段</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -2090,32 +2086,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2009-03-10</t>
+          <t>2006-05-17</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>万科、美的电器、西部矿业等公司10日公布2008年年报。万科年报显示，去年实现营业收入409.9亿元，同比上升15.4%；净利润40.3亿元，同比下降16.7%；每股收益0.37元。董事会通过的2008年度利润分配方案为每10股派息0.5元。$$</t>
+          <t>问：什么是市价申报方式？$$答：市价申报方式是指投资者委托会员按当时市场价格买卖证券的交易指令申报方式，又称为未指定价格申报。市价申报可以有多种实现形式，按申报的执行价格，可分为“完全市价”、“对手方最优价格”以及“本方最优价格”等形式；按委托执</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCS0q0J3bKM-kHYdzsPXOGjafh74r6tNkmTG2BR7H7BazrNEUxhJbWUgdTKhKsGWhVaGW2rUpf85r&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273Q8FdLSAjN8-pk3Lj1x_sH7M7xrFZcHVf4HqmmBLofYnIYgvB9WDB1FJ_ZmDOVRMbJlI0sKZcW9I_Me6CI9tEIKouwyXc1FJuxXLmRWNUvg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>郁亮：存货结构比较理想</t>
+          <t>G药玻两激励基金方案斗法</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>陈静</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2125,32 +2121,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2009-03-10</t>
+          <t>2006-05-09</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>万科总裁郁亮3月9日在接受中国证券报记者采访时表示，万科去年“去库存化”表现出色，存货结构比较理想。$$郁亮表示，2009年万科将坚持开发节奏和销售节奏相匹配、产品类型与市场需求相匹配的原则，加强对项目新开工、新开盘的管理，确保产品适销对路。预计</t>
+          <t>在G药玻（600529）日前召开的股东大会上，公司董事会提交的提取公司激励基金议案被否决，但公司第一大股东沂源县公有资产管理委员会提出的激励基金议案则顺利通过。在3月29日召开的公司董事会上，G药玻董事会表决通过了《激励基金管理办法》。该办法规定</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCS0q0J3bKM-kKMieY85hkjhr8ctVTfEKvSiCwQNiQcq8uqoFwPslLdRxrPVMBf60gQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273Q8FdLSAjN8-pk3Lj1x_sH7M7xrFZcHVf4HqmmBLofYnIYgvB9WDBpqFaTkqYg6kpByyHC3O-N-QHOqsPH6J-eB_S8gPtPIROq7LJrGy5GQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>珠三角楼市成交反弹延续</t>
+          <t>万科股权激励计划获证监会批复</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2160,32 +2156,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2009-02-28</t>
+          <t>2006-04-28</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>珠三角楼市近四个月的反弹行情，让房地产业看到了些许希望的曙光。然而，曙光仅仅初现，众多开发商的销售策略却开始出现严重分化，有的拟定多销快跑，有的却开始小幅涨价，甚至“捂盘”，珠三角楼市或将迎来持续的多空拉锯战。$$房价初显止跌迹象$$深圳</t>
+          <t>万科（000002、200002）今日公告了修订后的首期（06－08年）限制性股票激励计划，该计划目前已得到中国证监会的无异议回复。这是中国证监会发布《上市公司股权激励管理办法》以来，主板上市公司首份获得监管部门批准的股权激励方案。万科亦定于5月</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCUunFCLrPe5B2MeNx-z6l5InYDPEy7e-RSnBTxM5jtFCEXmVTjPPI7iBsXqyvJVjFkR4YnussfnB&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273Q8FdLSAjN8-pk3Lj1x_sH7M7xrFZcHVf4HqmmBLoff2J1KBjJ4hnUJiYPlDx6aSf8TWKJfOflLbd2r4XxBkVRuMFoww45S_f_28Hif0WHA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>万科1月销售均价明显下降</t>
+          <t>社会责任 中国企业绕不过去的河</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>杨志刚</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2195,20 +2191,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2009-02-11</t>
+          <t>2006-04-25</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>万科A（000002）1月实现销售面积28.6万平方米，销售金额21.9亿元，分别比2008年同期增长24.2%和18.6%。万科方面表示，1月份销售结果仍然体现出以自住需求为主的特征。$$促销见效$$自2008年5月以来，除11月以外，</t>
+          <t>“电信服务没有道理维持高价格。”杨培芳是信息产业部电信研究院的副总工程师，他日前在深圳3G亚洲峰会上对电信业高价格进行抨击，是基于电信网络边际成本趋于零的事实。“中移动比中国联通的用户数量仅多三分之一，但利润是其十倍，原因就在这里。”杨培芳进而表</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls4Ceq44eGur-DcOjJKQjE1s-GZYgTS6bOkIa7nfedoCUunFCLrPe5BwOq7ttr3dTF7pq0cAHC3Y21KW9H6auuHktiA9FTRAC6BzimJzJFhRMNe2eCevRp7&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph273Q8FdLSAjN8-pk3Lj1x_sH7M7xrFZcHVf4HqmmBLoff2J1KBjJ4hnteAlAUIqg610NcUaLAekA3wZUE13pDFKmx7Zgyvqeym2o-vY39N0Yw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
